--- a/apps/load_data/2023/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/08/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0823\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0823\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9F6ABB-F837-4D4C-97D4-5FA41F6803B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D9AFDD-4742-4F75-A640-C6A4306F0C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$287</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$287</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12161" uniqueCount="3307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12142" uniqueCount="3304">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6742,9 +6743,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7882,9 +7880,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8180,9 +8175,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9949,7 +9941,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10789,10 +10781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD170" sqref="AC170:AD240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42270,12 +42264,7 @@
       <c r="AB170" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC170" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC170" s="3"/>
       <c r="AF170" s="1" t="s">
         <v>107</v>
       </c>
@@ -42328,16 +42317,16 @@
         <v>23</v>
       </c>
       <c r="BD170" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BG170" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH170" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="BI170" s="1" t="s">
         <v>2241</v>
-      </c>
-      <c r="BI170" s="1" t="s">
-        <v>2242</v>
       </c>
       <c r="BN170" s="1" t="s">
         <v>117</v>
@@ -42352,13 +42341,13 @@
         <v>160</v>
       </c>
       <c r="BS170" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BT170" s="3">
         <v>36225</v>
       </c>
       <c r="BU170" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BV170" s="1" t="s">
         <v>121</v>
@@ -42379,19 +42368,19 @@
         <v>102</v>
       </c>
       <c r="CD170" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="CE170" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="CE170" s="1" t="s">
+      <c r="CF170" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="CF170" s="1" t="s">
+      <c r="CH170" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="CH170" s="1" t="s">
+      <c r="CI170" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="CI170" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="CJ170" s="1" t="s">
         <v>129</v>
@@ -42423,16 +42412,16 @@
         <v>95</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>101</v>
@@ -42455,12 +42444,7 @@
       <c r="AB171" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42507,7 +42491,7 @@
         <v>102</v>
       </c>
       <c r="AZ171" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BB171" s="1">
         <v>5</v>
@@ -42516,7 +42500,7 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>117</v>
@@ -42543,7 +42527,7 @@
         <v>111</v>
       </c>
       <c r="CA171" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CB171" s="1" t="s">
         <v>123</v>
@@ -42552,10 +42536,10 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="CH171" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>129</v>
@@ -42596,13 +42580,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42631,12 +42615,7 @@
       <c r="AA172" s="1">
         <v>0</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42686,7 +42665,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BB172" s="1">
         <v>8</v>
@@ -42695,13 +42674,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BN172" s="1" t="s">
         <v>117</v>
@@ -42710,7 +42689,7 @@
         <v>106</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -42728,16 +42707,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2266</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>129</v>
@@ -42778,13 +42757,13 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -42816,12 +42795,7 @@
       <c r="AB173" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -42871,7 +42845,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BB173" s="1">
         <v>8</v>
@@ -42880,13 +42854,13 @@
         <v>23</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -42895,7 +42869,7 @@
         <v>106</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>121</v>
@@ -42916,13 +42890,13 @@
         <v>665</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="CF173" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -42963,13 +42937,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -42998,12 +42972,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43053,7 +43022,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BB174" s="1">
         <v>8</v>
@@ -43062,13 +43031,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>930</v>
@@ -43080,7 +43049,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43098,16 +43067,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CE174" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CF174" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="CE174" s="1" t="s">
-        <v>2284</v>
-      </c>
-      <c r="CF174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>935</v>
@@ -43148,13 +43117,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43192,12 +43161,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43244,7 +43208,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BB175" s="1">
         <v>8</v>
@@ -43253,13 +43217,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>415</v>
@@ -43274,13 +43238,13 @@
         <v>118</v>
       </c>
       <c r="BS175" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BT175" s="3">
         <v>35243</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43298,16 +43262,16 @@
         <v>102</v>
       </c>
       <c r="CD175" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CE175" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CF175" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>422</v>
@@ -43348,13 +43312,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43383,12 +43347,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43438,7 +43397,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BB176" s="1">
         <v>8</v>
@@ -43447,13 +43406,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>930</v>
@@ -43465,7 +43424,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43483,16 +43442,16 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CF176" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>935</v>
@@ -43533,13 +43492,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43568,12 +43527,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43623,7 +43577,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB177" s="1">
         <v>8</v>
@@ -43632,13 +43586,13 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>570</v>
@@ -43653,7 +43607,7 @@
         <v>160</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -43671,16 +43625,16 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>577</v>
@@ -43715,19 +43669,19 @@
         <v>95</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -43762,12 +43716,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -43817,7 +43766,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB178" s="1">
         <v>8</v>
@@ -43826,13 +43775,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BN178" s="1" t="s">
         <v>117</v>
@@ -43841,7 +43790,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -43853,7 +43802,7 @@
         <v>111</v>
       </c>
       <c r="CA178" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CB178" s="1" t="s">
         <v>123</v>
@@ -43862,16 +43811,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2332</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2333</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>129</v>
@@ -43912,13 +43861,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -43947,12 +43896,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -43999,7 +43943,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BB179" s="1">
         <v>8</v>
@@ -44008,16 +43952,16 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2340</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>117</v>
@@ -44029,13 +43973,13 @@
         <v>118</v>
       </c>
       <c r="BS179" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BT179" s="3">
         <v>35950</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44053,19 +43997,19 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CE179" s="1" t="s">
         <v>1773</v>
       </c>
       <c r="CF179" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CH179" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CH179" s="1" t="s">
+      <c r="CI179" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CI179" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="CJ179" s="1" t="s">
         <v>129</v>
@@ -44103,13 +44047,13 @@
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2349</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44190,7 +44134,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BB180" s="1">
         <v>8</v>
@@ -44199,13 +44143,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>375</v>
@@ -44220,7 +44164,7 @@
         <v>160</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44238,16 +44182,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="CE180" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CF180" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="CH180" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>382</v>
@@ -44288,13 +44232,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44369,7 +44313,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB181" s="1">
         <v>8</v>
@@ -44378,16 +44322,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>117</v>
@@ -44399,13 +44343,13 @@
         <v>229</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BT181" s="3">
         <v>36099</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44423,19 +44367,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CF181" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="CF181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>129</v>
@@ -44473,13 +44417,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44554,7 +44498,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB182" s="1">
         <v>8</v>
@@ -44563,16 +44507,16 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>117</v>
@@ -44584,13 +44528,13 @@
         <v>103</v>
       </c>
       <c r="BS182" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BT182" s="3">
         <v>37735</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44608,19 +44552,19 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CE182" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CF182" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="CF182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="CH182" s="1" t="s">
+      <c r="CI182" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="CI182" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="CJ182" s="1" t="s">
         <v>129</v>
@@ -44658,13 +44602,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -44742,7 +44686,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BB183" s="1">
         <v>8</v>
@@ -44751,13 +44695,13 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>375</v>
@@ -44769,7 +44713,7 @@
         <v>106</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -44787,16 +44731,16 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="CE183" s="1" t="s">
         <v>859</v>
       </c>
       <c r="CF183" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CH183" s="1" t="s">
         <v>2393</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2394</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>382</v>
@@ -44837,13 +44781,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -44879,10 +44823,10 @@
         <v>107</v>
       </c>
       <c r="AG184" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AH184" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="AH184" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="AI184" s="1" t="s">
         <v>102</v>
@@ -44924,7 +44868,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BB184" s="1">
         <v>8</v>
@@ -44933,13 +44877,13 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -44948,7 +44892,7 @@
         <v>106</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -44969,13 +44913,13 @@
         <v>1560</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CF184" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>129</v>
@@ -45016,13 +44960,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45100,7 +45044,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BB185" s="1">
         <v>8</v>
@@ -45109,16 +45053,16 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>117</v>
@@ -45130,13 +45074,13 @@
         <v>103</v>
       </c>
       <c r="BS185" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BT185" s="3">
         <v>43602</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45160,10 +45104,10 @@
         <v>943</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2417</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>2040</v>
@@ -45204,13 +45148,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45288,7 +45232,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BB186" s="1">
         <v>8</v>
@@ -45297,13 +45241,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>930</v>
@@ -45315,7 +45259,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45333,16 +45277,16 @@
         <v>102</v>
       </c>
       <c r="CD186" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="CE186" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CF186" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>935</v>
@@ -45383,13 +45327,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45428,7 +45372,7 @@
         <v>42247</v>
       </c>
       <c r="AD187" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="AF187" s="1" t="s">
         <v>107</v>
@@ -45482,16 +45426,16 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45503,13 +45447,13 @@
         <v>229</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BT187" s="3">
         <v>36580</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45530,7 +45474,7 @@
         <v>102</v>
       </c>
       <c r="CD187" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="CE187" s="1" t="s">
         <v>299</v>
@@ -45539,10 +45483,10 @@
         <v>1592</v>
       </c>
       <c r="CH187" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CI187" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>129</v>
@@ -45580,13 +45524,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45670,13 +45614,13 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>1014</v>
@@ -45691,13 +45635,13 @@
         <v>118</v>
       </c>
       <c r="BS188" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BT188" s="3">
         <v>37747</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -45721,10 +45665,10 @@
         <v>650</v>
       </c>
       <c r="CF188" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CH188" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>1020</v>
@@ -45765,13 +45709,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -45858,13 +45802,13 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -45873,7 +45817,7 @@
         <v>106</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -45891,16 +45835,16 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CF189" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="CF189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>129</v>
@@ -45941,13 +45885,13 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46034,13 +45978,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>570</v>
@@ -46055,7 +45999,7 @@
         <v>160</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>121</v>
@@ -46073,16 +46017,16 @@
         <v>102</v>
       </c>
       <c r="CD190" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CE190" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CF190" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="CF190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>577</v>
@@ -46123,13 +46067,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46210,16 +46154,16 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>117</v>
@@ -46231,13 +46175,13 @@
         <v>103</v>
       </c>
       <c r="BS191" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BT191" s="3">
         <v>37334</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46258,16 +46202,16 @@
         <v>492</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CF191" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CH191" s="1" t="s">
+      <c r="CI191" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CI191" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="CJ191" s="1" t="s">
         <v>129</v>
@@ -46305,16 +46249,16 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46398,16 +46342,16 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>117</v>
@@ -46419,13 +46363,13 @@
         <v>103</v>
       </c>
       <c r="BS192" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BT192" s="3">
         <v>37904</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46446,16 +46390,16 @@
         <v>943</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CF192" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CH192" s="1" t="s">
+      <c r="CI192" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CI192" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>129</v>
@@ -46493,13 +46437,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46583,13 +46527,13 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>375</v>
@@ -46604,13 +46548,13 @@
         <v>118</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BT193" s="3">
         <v>36111</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46628,16 +46572,16 @@
         <v>102</v>
       </c>
       <c r="CD193" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="CE193" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CF193" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="CH193" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>382</v>
@@ -46678,13 +46622,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -46765,16 +46709,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>117</v>
@@ -46786,13 +46730,13 @@
         <v>118</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BT194" s="3">
         <v>37785</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -46810,19 +46754,19 @@
         <v>102</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CF194" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>129</v>
@@ -46854,16 +46798,16 @@
         <v>95</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -46941,7 +46885,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>117</v>
@@ -46956,7 +46900,7 @@
         <v>0</v>
       </c>
       <c r="CA195" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="CB195" s="1" t="s">
         <v>123</v>
@@ -46965,7 +46909,7 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>129</v>
@@ -47009,13 +46953,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47093,7 +47037,7 @@
         <v>102</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BB196" s="1">
         <v>8</v>
@@ -47102,13 +47046,13 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47117,7 +47061,7 @@
         <v>106</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>121</v>
@@ -47135,16 +47079,16 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>129</v>
@@ -47185,13 +47129,13 @@
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47269,7 +47213,7 @@
         <v>102</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BB197" s="1">
         <v>8</v>
@@ -47278,13 +47222,13 @@
         <v>23</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>598</v>
@@ -47296,7 +47240,7 @@
         <v>106</v>
       </c>
       <c r="BU197" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BV197" s="1" t="s">
         <v>121</v>
@@ -47314,16 +47258,16 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="CE197" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="CF197" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="CH197" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>605</v>
@@ -47364,13 +47308,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47448,7 +47392,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BB198" s="1">
         <v>8</v>
@@ -47457,13 +47401,13 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>117</v>
@@ -47472,7 +47416,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47493,13 +47437,13 @@
         <v>1100</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="CF198" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>129</v>
@@ -47540,13 +47484,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47624,7 +47568,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BB199" s="1">
         <v>8</v>
@@ -47633,13 +47577,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1014</v>
@@ -47657,13 +47601,13 @@
         <v>160</v>
       </c>
       <c r="BS199" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BT199" s="3">
         <v>37513</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47681,16 +47625,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1020</v>
@@ -47731,13 +47675,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -47821,16 +47765,16 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -47842,13 +47786,13 @@
         <v>229</v>
       </c>
       <c r="BS200" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BT200" s="3">
         <v>41024</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -47866,19 +47810,19 @@
         <v>102</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CF200" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="CH200" s="1" t="s">
+      <c r="CI200" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="CI200" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="CJ200" s="1" t="s">
         <v>129</v>
@@ -47916,10 +47860,10 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -47946,10 +47890,10 @@
         <v>107</v>
       </c>
       <c r="AG201" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AH201" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="AH201" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="AJ201" s="1" t="s">
         <v>110</v>
@@ -47991,7 +47935,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48000,7 +47944,7 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BN201" s="1" t="s">
         <v>117</v>
@@ -48027,7 +47971,7 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1373</v>
@@ -48071,13 +48015,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48152,7 +48096,7 @@
         <v>102</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BB202" s="1">
         <v>8</v>
@@ -48161,13 +48105,13 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>725</v>
@@ -48182,13 +48126,13 @@
         <v>103</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BT202" s="3">
         <v>37336</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>121</v>
@@ -48206,16 +48150,16 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>731</v>
@@ -48256,13 +48200,13 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48340,7 +48284,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BB203" s="1">
         <v>8</v>
@@ -48349,16 +48293,16 @@
         <v>23</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>117</v>
@@ -48367,7 +48311,7 @@
         <v>106</v>
       </c>
       <c r="BU203" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BV203" s="1" t="s">
         <v>121</v>
@@ -48385,19 +48329,19 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CF203" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="CF203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="CH203" s="1" t="s">
+      <c r="CI203" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="CI203" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="CJ203" s="1" t="s">
         <v>129</v>
@@ -48435,13 +48379,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48528,13 +48472,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BN204" s="1" t="s">
         <v>117</v>
@@ -48543,7 +48487,7 @@
         <v>106</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48561,16 +48505,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48611,13 +48555,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48655,12 +48599,7 @@
       <c r="AB205" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC205" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>107</v>
       </c>
@@ -48710,7 +48649,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="BB205" s="1">
         <v>8</v>
@@ -48719,16 +48658,16 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="BI205" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>117</v>
@@ -48737,7 +48676,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48761,16 +48700,16 @@
         <v>1148</v>
       </c>
       <c r="CE205" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CF205" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="CH205" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2627</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>129</v>
@@ -48790,7 +48729,7 @@
         <v>1403</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>102</v>
@@ -48802,16 +48741,16 @@
         <v>95</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>111</v>
@@ -48835,7 +48774,7 @@
         <v>107</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>371</v>
@@ -48880,7 +48819,7 @@
         <v>0</v>
       </c>
       <c r="CA206" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="CB206" s="1" t="s">
         <v>123</v>
@@ -48889,10 +48828,10 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF206" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="207" spans="1:88" x14ac:dyDescent="0.25">
@@ -48909,7 +48848,7 @@
         <v>1403</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>102</v>
@@ -48921,16 +48860,16 @@
         <v>95</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>111</v>
@@ -48957,7 +48896,7 @@
         <v>107</v>
       </c>
       <c r="AG207" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="AH207" s="1" t="s">
         <v>371</v>
@@ -49002,7 +48941,7 @@
         <v>0</v>
       </c>
       <c r="CA207" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="CB207" s="1" t="s">
         <v>123</v>
@@ -49011,10 +48950,10 @@
         <v>102</v>
       </c>
       <c r="CD207" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF207" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="208" spans="1:88" x14ac:dyDescent="0.25">
@@ -49049,10 +48988,10 @@
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49076,7 +49015,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>371</v>
@@ -49130,10 +49069,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49150,7 +49089,7 @@
         <v>185</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>93</v>
@@ -49162,16 +49101,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49240,7 +49179,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>123</v>
@@ -49249,10 +49188,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49269,7 +49208,7 @@
         <v>1403</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>93</v>
@@ -49281,16 +49220,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49359,7 +49298,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>123</v>
@@ -49368,10 +49307,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49388,7 +49327,7 @@
         <v>185</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49400,16 +49339,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49478,7 +49417,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>123</v>
@@ -49487,10 +49426,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -49525,10 +49464,10 @@
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -49606,10 +49545,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -49644,13 +49583,13 @@
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="N213" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>2655</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>101</v>
@@ -49679,12 +49618,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>107</v>
       </c>
@@ -49737,13 +49671,13 @@
         <v>23</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>375</v>
@@ -49758,13 +49692,13 @@
         <v>103</v>
       </c>
       <c r="BS213" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="BT213" s="3">
         <v>36306</v>
       </c>
       <c r="BU213" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>121</v>
@@ -49782,16 +49716,16 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="CE213" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CF213" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="CF213" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>382</v>
@@ -49832,13 +49766,13 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="N214" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>2666</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>101</v>
@@ -49867,12 +49801,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>107</v>
       </c>
@@ -49928,13 +49857,13 @@
         <v>23</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="BG214" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="BN214" s="1" t="s">
         <v>117</v>
@@ -49943,7 +49872,7 @@
         <v>106</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="BV214" s="1" t="s">
         <v>121</v>
@@ -49961,16 +49890,16 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="CE214" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="CH214" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>129</v>
@@ -50011,13 +49940,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50049,12 +49978,7 @@
       <c r="AB215" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50107,13 +50031,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>598</v>
@@ -50128,13 +50052,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="BT215" s="3">
         <v>38234</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>121</v>
@@ -50152,16 +50076,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="CE215" s="1" t="s">
         <v>993</v>
       </c>
       <c r="CF215" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CH215" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>605</v>
@@ -50202,13 +50126,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50237,12 +50161,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50298,13 +50217,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50313,7 +50232,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>121</v>
@@ -50331,16 +50250,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CE216" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CF216" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="CF216" s="1" t="s">
-        <v>2692</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>129</v>
@@ -50381,13 +50300,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50416,12 +50335,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50474,16 +50388,16 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>117</v>
@@ -50495,13 +50409,13 @@
         <v>229</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="BT217" s="3">
         <v>37069</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -50522,16 +50436,16 @@
         <v>741</v>
       </c>
       <c r="CE217" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="CH217" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="CF217" s="1" t="s">
+      <c r="CI217" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="CI217" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="CJ217" s="1" t="s">
         <v>129</v>
@@ -50569,13 +50483,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -50604,12 +50518,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -50665,13 +50574,13 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>117</v>
@@ -50680,7 +50589,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -50698,16 +50607,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2714</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>129</v>
@@ -50748,13 +50657,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2716</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -50783,12 +50692,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2719</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -50835,7 +50739,7 @@
         <v>102</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="BB219" s="1">
         <v>8</v>
@@ -50844,16 +50748,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
@@ -50865,13 +50769,13 @@
         <v>229</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="BT219" s="3">
         <v>35125</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -50889,19 +50793,19 @@
         <v>102</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF219" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="CH219" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="CI219" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>129</v>
@@ -50939,13 +50843,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -50981,7 +50885,7 @@
         <v>107</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>2098</v>
@@ -51032,7 +50936,7 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
@@ -51041,7 +50945,7 @@
         <v>117</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>121</v>
@@ -51059,13 +50963,13 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="CF220" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>129</v>
@@ -51109,13 +51013,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51202,13 +51106,13 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51217,7 +51121,7 @@
         <v>106</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>121</v>
@@ -51238,13 +51142,13 @@
         <v>334</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>129</v>
@@ -51285,13 +51189,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51375,16 +51279,16 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>117</v>
@@ -51396,13 +51300,13 @@
         <v>229</v>
       </c>
       <c r="BS222" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="BT222" s="3">
         <v>34307</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51420,19 +51324,19 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="CE222" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="CI222" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="CJ222" s="1" t="s">
         <v>129</v>
@@ -51470,13 +51374,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51566,13 +51470,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
@@ -51581,7 +51485,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -51611,10 +51515,10 @@
         <v>1207</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -51655,13 +51559,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -51748,13 +51652,13 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>117</v>
@@ -51769,13 +51673,13 @@
         <v>160</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="BT224" s="3">
         <v>5347</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -51799,16 +51703,16 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>448</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>129</v>
@@ -51849,10 +51753,10 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -51930,7 +51834,7 @@
         <v>22</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -51960,7 +51864,7 @@
         <v>102</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>129</v>
@@ -52004,10 +51908,10 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52037,10 +51941,10 @@
         <v>107</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="AH226" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AJ226" s="1" t="s">
         <v>110</v>
@@ -52088,7 +51992,7 @@
         <v>21</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52118,7 +52022,7 @@
         <v>93</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>129</v>
@@ -52162,10 +52066,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52195,10 +52099,10 @@
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="AH227" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AJ227" s="1" t="s">
         <v>110</v>
@@ -52246,7 +52150,7 @@
         <v>21</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52273,7 +52177,7 @@
         <v>93</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>129</v>
@@ -52317,13 +52221,13 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
@@ -52413,7 +52317,7 @@
         <v>23</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="BG228" s="1" t="s">
         <v>114</v>
@@ -52422,7 +52326,7 @@
         <v>117</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>121</v>
@@ -52443,13 +52347,13 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52493,13 +52397,13 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
@@ -52586,13 +52490,13 @@
         <v>23</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BG229" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>375</v>
@@ -52607,13 +52511,13 @@
         <v>118</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="BT229" s="3">
         <v>35278</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>121</v>
@@ -52634,16 +52538,16 @@
         <v>102</v>
       </c>
       <c r="CD229" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="CH229" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="CF229" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2805</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>382</v>
@@ -52684,13 +52588,13 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
@@ -52780,19 +52684,19 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -52813,16 +52717,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="CE230" s="1" t="s">
         <v>449</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>129</v>
@@ -52863,10 +52767,10 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -52896,10 +52800,10 @@
         <v>107</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="AH231" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AJ231" s="1" t="s">
         <v>110</v>
@@ -52944,7 +52848,7 @@
         <v>22</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -52971,7 +52875,7 @@
         <v>93</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>129</v>
@@ -53015,10 +52919,10 @@
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53093,7 +52997,7 @@
         <v>23</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
@@ -53120,7 +53024,7 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>1373</v>
@@ -53146,7 +53050,7 @@
         <v>185</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>93</v>
@@ -53158,22 +53062,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>2826</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="Q233" s="3">
         <v>17060</v>
@@ -53206,13 +53110,13 @@
         <v>42628</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>136</v>
@@ -53257,22 +53161,22 @@
         <v>102</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
-        <v>2831</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>2833</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
@@ -53281,7 +53185,7 @@
         <v>106</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>121</v>
@@ -53305,13 +53209,13 @@
         <v>125</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI233" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="CJ233" s="1" t="s">
         <v>129</v>
@@ -53325,13 +53229,13 @@
         <v>89</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>102</v>
@@ -53343,22 +53247,22 @@
         <v>95</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="Q234" s="3">
         <v>26864</v>
@@ -53391,7 +53295,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -53445,10 +53349,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -53460,13 +53364,13 @@
         <v>229</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BT234" s="3">
         <v>102</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>121</v>
@@ -53478,7 +53382,7 @@
         <v>111</v>
       </c>
       <c r="CA234" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CB234" s="1" t="s">
         <v>123</v>
@@ -53487,16 +53391,16 @@
         <v>102</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>129</v>
@@ -53537,16 +53441,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="Q235" s="3">
         <v>25379</v>
@@ -53576,7 +53480,7 @@
         <v>39800</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>243</v>
@@ -53630,10 +53534,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -53645,13 +53549,13 @@
         <v>1610</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BT235" s="3">
         <v>35915</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -53681,10 +53585,10 @@
         <v>627</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>129</v>
@@ -53707,7 +53611,7 @@
         <v>91</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>102</v>
@@ -53719,22 +53623,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="Q236" s="3">
         <v>17470</v>
@@ -53764,7 +53668,7 @@
         <v>43100</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -53821,10 +53725,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -53833,7 +53737,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -53857,16 +53761,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>129</v>
@@ -53889,7 +53793,7 @@
         <v>91</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>102</v>
@@ -53901,22 +53805,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="Q237" s="3">
         <v>23356</v>
@@ -53943,7 +53847,7 @@
         <v>43105</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -53997,10 +53901,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54012,13 +53916,13 @@
         <v>103</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BT237" s="3">
         <v>34412</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54027,7 +53931,7 @@
         <v>0</v>
       </c>
       <c r="CA237" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="CB237" s="1" t="s">
         <v>123</v>
@@ -54036,16 +53940,16 @@
         <v>102</v>
       </c>
       <c r="CD237" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="CE237" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="CF237" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CH237" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="CF237" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="CH237" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>129</v>
@@ -54068,7 +53972,7 @@
         <v>1403</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>93</v>
@@ -54080,22 +53984,22 @@
         <v>95</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="Q238" s="3">
         <v>17726</v>
@@ -54131,7 +54035,7 @@
         <v>43312</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>243</v>
@@ -54182,7 +54086,7 @@
         <v>102</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BB238" s="1">
         <v>0</v>
@@ -54191,10 +54095,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
@@ -54203,7 +54107,7 @@
         <v>106</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54212,7 +54116,7 @@
         <v>0</v>
       </c>
       <c r="CA238" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="CB238" s="1" t="s">
         <v>123</v>
@@ -54221,16 +54125,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="CF238" s="1" t="s">
         <v>885</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>129</v>
@@ -54253,7 +54157,7 @@
         <v>1403</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>93</v>
@@ -54265,22 +54169,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="Q239" s="3">
         <v>17041</v>
@@ -54310,13 +54214,13 @@
         <v>42735</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>2098</v>
@@ -54367,7 +54271,7 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54376,7 +54280,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54388,7 +54292,7 @@
         <v>111</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>123</v>
@@ -54397,13 +54301,13 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -54429,7 +54333,7 @@
         <v>1403</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>102</v>
@@ -54441,22 +54345,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="Q240" s="3">
         <v>30147</v>
@@ -54482,17 +54386,12 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2619</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>371</v>
@@ -54540,10 +54439,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -54555,13 +54454,13 @@
         <v>103</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BT240" s="3">
         <v>37124</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -54570,7 +54469,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>123</v>
@@ -54579,16 +54478,16 @@
         <v>102</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CE240" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -54611,7 +54510,7 @@
         <v>91</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>102</v>
@@ -54623,22 +54522,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="Q241" s="3">
         <v>17821</v>
@@ -54674,7 +54573,7 @@
         <v>43388</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
@@ -54725,25 +54624,25 @@
         <v>102</v>
       </c>
       <c r="AZ241" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="BB241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD241" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="BE241" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="BF241" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="BB241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD241" s="1" t="s">
+      <c r="BH241" s="1" t="s">
         <v>2924</v>
-      </c>
-      <c r="BE241" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="BF241" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="BH241" s="1" t="s">
-        <v>2927</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -54752,7 +54651,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -54761,7 +54660,7 @@
         <v>0</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>123</v>
@@ -54770,16 +54669,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="CF241" s="1" t="s">
         <v>478</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>129</v>
@@ -54820,16 +54719,16 @@
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -54862,7 +54761,7 @@
         <v>43980</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -54916,10 +54815,10 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -54931,13 +54830,13 @@
         <v>1610</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BT242" s="3">
         <v>35915</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -54961,7 +54860,7 @@
         <v>627</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>1373</v>
@@ -54999,22 +54898,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55050,7 +54949,7 @@
         <v>44135</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
@@ -55107,10 +55006,10 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
@@ -55119,7 +55018,7 @@
         <v>106</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55128,7 +55027,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55140,10 +55039,10 @@
         <v>1238</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>1373</v>
@@ -55187,16 +55086,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55229,16 +55128,16 @@
         <v>43847</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AH244" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="AH244" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="AJ244" s="1" t="s">
         <v>110</v>
@@ -55280,7 +55179,7 @@
         <v>102</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB244" s="1">
         <v>2</v>
@@ -55289,10 +55188,10 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55304,13 +55203,13 @@
         <v>118</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BT244" s="3">
         <v>34808</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55328,13 +55227,13 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1373</v>
@@ -55351,10 +55250,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1213</v>
@@ -55378,16 +55277,16 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55441,7 +55340,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55471,7 +55370,7 @@
         <v>102</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BB245" s="1">
         <v>2</v>
@@ -55480,13 +55379,13 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -55504,13 +55403,13 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>129</v>
@@ -55554,16 +55453,16 @@
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -55602,7 +55501,7 @@
         <v>44246</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -55659,10 +55558,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -55671,7 +55570,7 @@
         <v>106</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -55695,13 +55594,13 @@
         <v>102</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CE246" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -55745,16 +55644,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -55790,7 +55689,7 @@
         <v>44267</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
@@ -55847,10 +55746,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
@@ -55862,13 +55761,13 @@
         <v>118</v>
       </c>
       <c r="BS247" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BT247" s="3">
         <v>35711</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -55892,7 +55791,7 @@
         <v>379</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -55936,16 +55835,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -55981,16 +55880,16 @@
         <v>44255</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="AH248" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AJ248" s="1" t="s">
         <v>110</v>
@@ -56038,16 +55937,16 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BE248" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BF248" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
@@ -56056,13 +55955,13 @@
         <v>229</v>
       </c>
       <c r="BS248" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BT248" s="3">
         <v>2302</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56086,16 +55985,16 @@
         <v>93</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="CH248" s="1" t="s">
         <v>2993</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="CF248" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>2996</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>129</v>
@@ -56136,16 +56035,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56181,7 +56080,7 @@
         <v>44316</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56238,10 +56137,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56253,13 +56152,13 @@
         <v>229</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BT249" s="3">
         <v>35108</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56277,16 +56176,16 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>1894</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CH249" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>129</v>
@@ -56327,16 +56226,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56372,16 +56271,16 @@
         <v>44507</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="AH250" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AI250" s="1" t="s">
         <v>102</v>
@@ -56432,16 +56331,16 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -56465,16 +56364,16 @@
         <v>93</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH250" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>129</v>
@@ -56509,22 +56408,22 @@
         <v>95</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56557,7 +56456,7 @@
         <v>44701</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
@@ -56605,7 +56504,7 @@
         <v>102</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BB251" s="1">
         <v>5</v>
@@ -56614,13 +56513,13 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -56635,13 +56534,13 @@
         <v>160</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BT251" s="3">
         <v>36825</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -56656,7 +56555,7 @@
         <v>111</v>
       </c>
       <c r="CA251" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CB251" s="1" t="s">
         <v>123</v>
@@ -56665,19 +56564,19 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI251" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CJ251" s="1" t="s">
         <v>129</v>
@@ -56709,22 +56608,22 @@
         <v>95</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -56757,7 +56656,7 @@
         <v>44733</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -56814,10 +56713,10 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
@@ -56829,13 +56728,13 @@
         <v>229</v>
       </c>
       <c r="BS252" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BT252" s="3">
         <v>34412</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -56856,13 +56755,13 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>2235</v>
@@ -56900,22 +56799,22 @@
         <v>95</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -56948,7 +56847,7 @@
         <v>44561</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
@@ -57005,7 +56904,7 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
@@ -57014,13 +56913,13 @@
         <v>229</v>
       </c>
       <c r="BS253" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BT253" s="3">
         <v>5480</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57044,13 +56943,13 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>129</v>
@@ -57094,16 +56993,16 @@
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57139,7 +57038,7 @@
         <v>44788</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57199,10 +57098,10 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57217,13 +57116,13 @@
         <v>160</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BT254" s="3">
         <v>35259</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57241,13 +57140,13 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>129</v>
@@ -57291,16 +57190,16 @@
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57333,16 +57232,16 @@
         <v>44833</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="AH255" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AI255" s="1" t="s">
         <v>102</v>
@@ -57393,16 +57292,16 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57414,7 +57313,7 @@
         <v>111</v>
       </c>
       <c r="CA255" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CB255" s="1" t="s">
         <v>123</v>
@@ -57423,16 +57322,16 @@
         <v>93</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>129</v>
@@ -57473,16 +57372,16 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57518,16 +57417,16 @@
         <v>44895</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="AH256" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AJ256" s="1" t="s">
         <v>110</v>
@@ -57572,10 +57471,10 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>117</v>
@@ -57584,13 +57483,13 @@
         <v>118</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BT256" s="3">
         <v>34170</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -57611,16 +57510,16 @@
         <v>93</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CH256" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>129</v>
@@ -57661,13 +57560,13 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57754,13 +57653,13 @@
         <v>23</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
@@ -57769,7 +57668,7 @@
         <v>106</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -57790,16 +57689,16 @@
         <v>102</v>
       </c>
       <c r="CD257" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="CF257" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="CH257" s="1" t="s">
         <v>3075</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3076</v>
-      </c>
-      <c r="CF257" s="1" t="s">
-        <v>3077</v>
-      </c>
-      <c r="CH257" s="1" t="s">
-        <v>3078</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>129</v>
@@ -57840,16 +57739,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -57882,7 +57781,7 @@
         <v>45007</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
@@ -57936,10 +57835,10 @@
         <v>23</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
@@ -57948,13 +57847,13 @@
         <v>103</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BT258" s="3">
         <v>300</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -57975,13 +57874,13 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>1373</v>
@@ -58025,13 +57924,13 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58064,7 +57963,7 @@
         <v>107</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>154</v>
@@ -58118,19 +58017,19 @@
         <v>23</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58151,16 +58050,16 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>129</v>
@@ -58201,13 +58100,13 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58291,13 +58190,13 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BI260" s="1" t="s">
         <v>1647</v>
@@ -58312,13 +58211,13 @@
         <v>103</v>
       </c>
       <c r="BS260" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BT260" s="3">
         <v>424</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58339,16 +58238,16 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>1954</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>1652</v>
@@ -58389,16 +58288,16 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58437,7 +58336,7 @@
         <v>45131</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>107</v>
@@ -58497,10 +58396,10 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
@@ -58509,7 +58408,7 @@
         <v>106</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -58533,7 +58432,7 @@
         <v>921</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>129</v>
@@ -58577,16 +58476,16 @@
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58625,7 +58524,7 @@
         <v>45124</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>107</v>
@@ -58685,10 +58584,10 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>117</v>
@@ -58697,7 +58596,7 @@
         <v>106</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -58718,13 +58617,13 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1373</v>
@@ -58741,10 +58640,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1213</v>
@@ -58759,7 +58658,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1213</v>
@@ -58768,13 +58667,13 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58828,7 +58727,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -58861,19 +58760,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -58891,16 +58790,16 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CH263" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -58914,10 +58813,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1213</v>
@@ -58932,7 +58831,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1213</v>
@@ -58941,13 +58840,13 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -58998,7 +58897,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="AO264" s="1">
         <v>0</v>
@@ -59034,19 +58933,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59073,10 +58972,10 @@
         <v>1051</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59090,10 +58989,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1213</v>
@@ -59108,7 +59007,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1213</v>
@@ -59117,13 +59016,13 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59174,7 +59073,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59210,19 +59109,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59243,16 +59142,16 @@
         <v>102</v>
       </c>
       <c r="CD265" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="CE265" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="CF265" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="CH265" s="1" t="s">
         <v>3147</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="CF265" s="1" t="s">
-        <v>3149</v>
-      </c>
-      <c r="CH265" s="1" t="s">
-        <v>3150</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59266,10 +59165,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1213</v>
@@ -59284,7 +59183,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1213</v>
@@ -59293,13 +59192,13 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59386,19 +59285,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59419,7 +59318,7 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>574</v>
@@ -59428,7 +59327,7 @@
         <v>478</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>129</v>
@@ -59442,10 +59341,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1213</v>
@@ -59460,7 +59359,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1213</v>
@@ -59469,13 +59368,13 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59529,7 +59428,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59565,19 +59464,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -59601,13 +59500,13 @@
         <v>462</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>129</v>
@@ -59621,10 +59520,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1213</v>
@@ -59639,7 +59538,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1213</v>
@@ -59648,13 +59547,13 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59741,19 +59640,19 @@
         <v>23</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>121</v>
@@ -59774,16 +59673,16 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CE268" s="1" t="s">
         <v>585</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>129</v>
@@ -59797,10 +59696,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1213</v>
@@ -59815,7 +59714,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1213</v>
@@ -59824,13 +59723,13 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -59884,7 +59783,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -59920,19 +59819,19 @@
         <v>23</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>121</v>
@@ -59953,16 +59852,16 @@
         <v>102</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CE269" s="1" t="s">
         <v>981</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CH269" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CI269" s="1" t="s">
         <v>129</v>
@@ -59976,10 +59875,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1213</v>
@@ -59994,7 +59893,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1213</v>
@@ -60003,13 +59902,13 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60063,7 +59962,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60099,19 +59998,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60135,13 +60034,13 @@
         <v>967</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CF270" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CH270" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60155,10 +60054,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1213</v>
@@ -60173,7 +60072,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1213</v>
@@ -60182,10 +60081,10 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60227,7 +60126,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60263,7 +60162,7 @@
         <v>21</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
@@ -60287,7 +60186,7 @@
         <v>102</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>129</v>
@@ -60304,10 +60203,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1213</v>
@@ -60322,7 +60221,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1213</v>
@@ -60331,13 +60230,13 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="L272" s="1" t="s">
         <v>2180</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60388,7 +60287,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60421,19 +60320,19 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>121</v>
@@ -60451,16 +60350,16 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="CF272" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="CH272" s="1" t="s">
         <v>3206</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="CF272" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="CH272" s="1" t="s">
-        <v>3209</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>129</v>
@@ -60474,10 +60373,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1213</v>
@@ -60492,7 +60391,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1213</v>
@@ -60501,13 +60400,13 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60591,19 +60490,19 @@
         <v>23</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>121</v>
@@ -60624,16 +60523,16 @@
         <v>2121</v>
       </c>
       <c r="CD273" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="CF273" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="CH273" s="1" t="s">
         <v>3215</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="CF273" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="CH273" s="1" t="s">
-        <v>3218</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>129</v>
@@ -60647,10 +60546,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1213</v>
@@ -60665,7 +60564,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1213</v>
@@ -60674,13 +60573,13 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60734,7 +60633,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -60770,19 +60669,19 @@
         <v>23</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>121</v>
@@ -60803,16 +60702,16 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CF274" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CH274" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>129</v>
@@ -60826,10 +60725,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1213</v>
@@ -60844,7 +60743,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1213</v>
@@ -60853,10 +60752,10 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -60898,7 +60797,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -60934,7 +60833,7 @@
         <v>22</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>117</v>
@@ -60958,7 +60857,7 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>129</v>
@@ -60975,10 +60874,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1213</v>
@@ -60993,7 +60892,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1213</v>
@@ -61002,10 +60901,10 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61047,7 +60946,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61083,7 +60982,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
@@ -61107,7 +61006,7 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>129</v>
@@ -61124,10 +61023,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1213</v>
@@ -61142,7 +61041,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1213</v>
@@ -61151,13 +61050,13 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61250,7 +61149,7 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
@@ -61277,10 +61176,10 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="CF277" s="1" t="s">
         <v>216</v>
@@ -61300,10 +61199,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1213</v>
@@ -61318,7 +61217,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1213</v>
@@ -61327,10 +61226,10 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61372,7 +61271,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61408,7 +61307,7 @@
         <v>22</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
@@ -61417,7 +61316,7 @@
         <v>121</v>
       </c>
       <c r="BX278" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BY278" s="1">
         <v>0</v>
@@ -61435,7 +61334,7 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>129</v>
@@ -61452,10 +61351,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1213</v>
@@ -61470,7 +61369,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1213</v>
@@ -61479,13 +61378,13 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -61536,7 +61435,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -61572,19 +61471,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -61605,16 +61504,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CF279" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CH279" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -61628,10 +61527,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1213</v>
@@ -61646,7 +61545,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1213</v>
@@ -61655,13 +61554,13 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -61691,7 +61590,7 @@
         <v>107</v>
       </c>
       <c r="AG280" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="AH280" s="1" t="s">
         <v>371</v>
@@ -61706,7 +61605,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -61736,19 +61635,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -61766,16 +61665,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CE280" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF280" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CH280" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -61789,10 +61688,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1213</v>
@@ -61807,7 +61706,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1213</v>
@@ -61816,13 +61715,13 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -61906,19 +61805,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -61936,16 +61835,16 @@
         <v>102</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3270</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3272</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3273</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -61959,10 +61858,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1213</v>
@@ -61977,7 +61876,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1213</v>
@@ -61986,13 +61885,13 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62079,19 +61978,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62109,16 +62008,16 @@
         <v>102</v>
       </c>
       <c r="CD282" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CF282" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CH282" s="1" t="s">
         <v>3280</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="CF282" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="CH282" s="1" t="s">
-        <v>3283</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62132,10 +62031,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1213</v>
@@ -62150,7 +62049,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1213</v>
@@ -62159,13 +62058,13 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62174,7 +62073,7 @@
         <v>102</v>
       </c>
       <c r="Q283" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="R283" s="1" t="s">
         <v>134</v>
@@ -62216,7 +62115,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62249,19 +62148,19 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU283" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BV283" s="1" t="s">
         <v>121</v>
@@ -62279,16 +62178,16 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="CF283" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="CH283" s="1" t="s">
         <v>3291</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="CF283" s="1" t="s">
-        <v>3293</v>
-      </c>
-      <c r="CH283" s="1" t="s">
-        <v>3294</v>
       </c>
       <c r="CI283" s="1" t="s">
         <v>129</v>
@@ -62302,10 +62201,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1213</v>
@@ -62320,7 +62219,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1213</v>
@@ -62329,13 +62228,13 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -62389,7 +62288,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62425,19 +62324,19 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -62464,10 +62363,10 @@
         <v>1450</v>
       </c>
       <c r="CF284" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="CH284" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -62481,10 +62380,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1213</v>
@@ -62499,7 +62398,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1213</v>
@@ -62508,10 +62407,10 @@
         <v>92</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -62556,7 +62455,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -62592,7 +62491,7 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
@@ -62616,7 +62515,7 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>129</v>
@@ -62633,10 +62532,10 @@
         <v>88</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1213</v>
@@ -62651,7 +62550,7 @@
         <v>94</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1213</v>
@@ -62660,10 +62559,10 @@
         <v>92</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>101</v>
@@ -62708,7 +62607,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO286" s="1">
         <v>0</v>
@@ -62744,7 +62643,7 @@
         <v>23</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BN286" s="1" t="s">
         <v>117</v>
@@ -62768,7 +62667,7 @@
         <v>102</v>
       </c>
       <c r="CD286" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>129</v>
@@ -62785,10 +62684,10 @@
         <v>88</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1213</v>
@@ -62803,7 +62702,7 @@
         <v>94</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1213</v>
@@ -62812,10 +62711,10 @@
         <v>92</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>101</v>
@@ -62860,7 +62759,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -62896,7 +62795,7 @@
         <v>23</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BN287" s="1" t="s">
         <v>117</v>
@@ -62920,7 +62819,7 @@
         <v>102</v>
       </c>
       <c r="CD287" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>129</v>
@@ -62933,6 +62832,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ287" xr:uid="{10A103AA-3A52-47BD-B7A0-EEEDE7B9B102}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>